--- a/Data/Transitions/18921910Translation.xlsx
+++ b/Data/Transitions/18921910Translation.xlsx
@@ -136,7 +136,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -160,7 +160,7 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
@@ -265,10 +265,10 @@
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9168485213334336}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9109445519019987}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -334,7 +334,7 @@
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.956186006032451}</t>
+    <t>{180.0: 0.9632533448566747}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -343,7 +343,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -451,6 +451,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -505,7 +508,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -532,7 +535,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434104, 180.0: 0.019290841734807506}</t>
+    <t>{277.0: 0.9637501241434104, 180.0: 0.03163332341347582}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -622,7 +625,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089}</t>
+    <t>{311.0: 0.9765860497721697}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -646,9 +649,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -778,7 +778,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.09431007482164608}</t>
+    <t>{476.0: 1.0, 595.0: 0.09373919059149083}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -880,7 +880,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -892,7 +892,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -982,10 +982,10 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9056899251783539}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9062608094085092}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1120,7 +1120,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1213,7 +1213,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1243,7 +1243,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.7593283582089553}</t>
+    <t>{757.0: 0.7565118912797282}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1405,7 +1405,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1492,7 +1492,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.93016028215246}</t>
+    <t>{930.0: 0.9201405526273758}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
+    <t>{593.0: 0.24784505665281187}</t>
   </si>
   <si>
     <t>{785.0: 0.2579514149762084}</t>
@@ -1600,7 +1600,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1618,7 +1618,7 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909882}</t>
+    <t>{141.0: 0.9421837681943129, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -1636,13 +1636,13 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.2110956036287509}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977655}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.4878850102669405, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.48788501026694037, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434105, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434104, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
@@ -1675,7 +1675,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352774, 595.0: 0.1541963015647226}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058993}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1687,7 +1687,7 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1699,7 +1699,7 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
   </si>
   <si>
     <t>{617.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{681.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.2921423774345198}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.2907754010695187}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
@@ -1729,7 +1729,7 @@
     <t>{757.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009013, 762.0: 0.05790113999909883}</t>
+    <t>{141.0: 0.942183768194313, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -1738,7 +1738,7 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{887.0: 1.0}</t>
@@ -1747,10 +1747,10 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.3887955182072829, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587604, 494.0: 0.09946442234123949}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786258, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372657, 729.0: 0.3049207329627342}</t>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3750,29 +3750,29 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>545</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3893,51 +3893,51 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>546</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>546</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>547</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3992,29 +3992,29 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>548</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4102,29 +4102,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>549</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>549</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4311,40 +4311,40 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>550</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
